--- a/Intervention setting/Intervention setting.xlsx
+++ b/Intervention setting/Intervention setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention setting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_75B184A6DD6ADBAE0344D2D2475ED87656CD58FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD34476E-A4E9-4DBD-8CF7-C8B8CDB5F0DD}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_75B184A6DD6ADBAE0344D2D2475ED87656CD58FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A07ABBD6-C113-452A-85E8-F5006549DEAA}"/>
   <bookViews>
-    <workbookView xWindow="49305" yWindow="105" windowWidth="18120" windowHeight="20865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="1245" windowWidth="22740" windowHeight="20445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="155">
   <si>
     <t>ID</t>
   </si>
@@ -274,9 +274,6 @@
     <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
   </si>
   <si>
-    <t>BCIO:014000</t>
-  </si>
-  <si>
     <t>intervention setting</t>
   </si>
   <si>
@@ -478,7 +475,16 @@
     <t>LSR 3</t>
   </si>
   <si>
-    <t>LSR 1; LSR 3</t>
+    <t>LSR 1; LSR 2; LSR 3</t>
+  </si>
+  <si>
+    <t>Propose to external ontology</t>
+  </si>
+  <si>
+    <t>http://humanbehaviourchange.org/ontology/BCIO_014000</t>
+  </si>
+  <si>
+    <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
   </si>
 </sst>
 </file>
@@ -525,16 +531,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -852,7 +861,7 @@
     <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="62" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,7 +929,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
@@ -934,7 +943,7 @@
         <v>25</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>26</v>
@@ -946,7 +955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -960,7 +969,7 @@
         <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>26</v>
@@ -972,7 +981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -986,7 +995,7 @@
         <v>36</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q4" s="2" t="s">
         <v>26</v>
@@ -998,7 +1007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -1012,7 +1021,7 @@
         <v>40</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q5" s="2" t="s">
         <v>26</v>
@@ -1024,7 +1033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>36</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q6" s="2" t="s">
         <v>26</v>
@@ -1050,7 +1059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>42</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>26</v>
@@ -1076,7 +1085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -1090,7 +1099,7 @@
         <v>50</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q8" s="2" t="s">
         <v>26</v>
@@ -1105,7 +1114,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>40</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q9" s="2" t="s">
         <v>26</v>
@@ -1131,7 +1140,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>36</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="2" t="s">
         <v>26</v>
@@ -1157,7 +1166,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>58</v>
       </c>
@@ -1171,7 +1180,7 @@
         <v>36</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>26</v>
@@ -1183,7 +1192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
@@ -1197,7 +1206,7 @@
         <v>40</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>26</v>
@@ -1209,7 +1218,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
@@ -1223,7 +1232,7 @@
         <v>66</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="2" t="s">
         <v>26</v>
@@ -1238,7 +1247,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>67</v>
       </c>
@@ -1252,7 +1261,7 @@
         <v>40</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>26</v>
@@ -1264,7 +1273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>70</v>
       </c>
@@ -1278,7 +1287,7 @@
         <v>32</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>26</v>
@@ -1290,7 +1299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>73</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>26</v>
@@ -1316,7 +1325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -1330,7 +1339,7 @@
         <v>40</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="2" t="s">
         <v>26</v>
@@ -1342,7 +1351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>78</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>36</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q18" s="2" t="s">
         <v>26</v>
@@ -1368,7 +1377,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>81</v>
       </c>
@@ -1382,7 +1391,7 @@
         <v>36</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>26</v>
@@ -1394,21 +1403,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="174" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>87</v>
+      <c r="L20" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="2" t="s">
         <v>26</v>
@@ -1423,21 +1432,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="2" t="s">
         <v>26</v>
@@ -1449,21 +1458,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="2" t="s">
         <v>26</v>
@@ -1475,18 +1484,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1500,16 +1509,18 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T23" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="U23" s="3" t="s">
         <v>51</v>
       </c>
@@ -1517,21 +1528,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="2" t="s">
         <v>26</v>
@@ -1543,21 +1554,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="P25" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="2" t="s">
         <v>26</v>
@@ -1572,21 +1583,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>26</v>
@@ -1598,21 +1609,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q27" s="2" t="s">
         <v>26</v>
@@ -1624,21 +1635,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q28" s="2" t="s">
         <v>26</v>
@@ -1650,21 +1661,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>26</v>
@@ -1676,21 +1687,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>26</v>
@@ -1702,18 +1713,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>122</v>
-      </c>
       <c r="D31" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1727,33 +1738,34 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="R31" s="3"/>
       <c r="S31" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="V31" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>125</v>
-      </c>
       <c r="D32" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1767,36 +1779,37 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>26</v>
       </c>
       <c r="R32" s="3"/>
       <c r="S32" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="V32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q33" s="2" t="s">
         <v>26</v>
@@ -1808,21 +1821,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>36</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q34" s="2" t="s">
         <v>26</v>
@@ -1834,21 +1847,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q35" s="2" t="s">
         <v>26</v>
@@ -1860,21 +1873,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q36" s="2" t="s">
         <v>26</v>
@@ -1886,21 +1899,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>40</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q37" s="2" t="s">
         <v>26</v>
@@ -1912,21 +1925,21 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>32</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>26</v>
@@ -1938,18 +1951,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="C39" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1963,35 +1976,32 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q39" s="3" t="s">
         <v>26</v>
       </c>
       <c r="R39" s="3"/>
       <c r="S39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T39" s="3"/>
-      <c r="U39" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="V39" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="174" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>151</v>
@@ -2002,28 +2012,25 @@
       <c r="S40" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U40" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="V40" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q41" s="2" t="s">
         <v>26</v>
@@ -2032,32 +2039,6 @@
         <v>27</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S42" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="V42" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/Intervention setting/Intervention setting.xlsx
+++ b/Intervention setting/Intervention setting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention setting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_75B184A6DD6ADBAE0344D2D2475ED87656CD58FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A07ABBD6-C113-452A-85E8-F5006549DEAA}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="11_75B184A6DD6ADBAE0344D2D2475ED87656CD58FE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81B3995E-D1B6-4912-B850-F82B64283CB0}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="1245" windowWidth="22740" windowHeight="20445" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
@@ -485,6 +485,15 @@
   </si>
   <si>
     <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
+  </si>
+  <si>
+    <t>BFO:0000027</t>
+  </si>
+  <si>
+    <t>b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists.</t>
+  </si>
+  <si>
+    <t>material entity</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -540,9 +549,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -847,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V41"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1488,7 +1494,7 @@
       <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2042,6 +2048,32 @@
         <v>28</v>
       </c>
     </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Intervention setting/Intervention setting.xlsx
+++ b/Intervention setting/Intervention setting.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V42"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,56 +1337,60 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>ENVO:00000106</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>grassland</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>outdoor environment</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>GAZ:00000448</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>geographical location</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>A reference to a place on the Earth, by its name or by its geographical location</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>spatial region</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>intervention setting</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>intervention setting</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="inlineStr"/>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1395,22 +1399,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OMRSE:00000102</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>grassland</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>outdoor environment</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
@@ -1451,22 +1455,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OMRSE:00000104</t>
+          <t>OMRSE:00000102</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>hospice facility</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
@@ -1507,17 +1511,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OMRSE:00000063</t>
+          <t>OMRSE:00000104</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>hospital facility</t>
+          <t>hospice facility</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
+          <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1563,22 +1567,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GMHO:0000169</t>
+          <t>OMRSE:00000063</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>intervention setting</t>
+          <t>hospital facility</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
+          <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1588,11 +1592,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_014000</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1613,11 +1613,7 @@
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1627,22 +1623,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:026040</t>
+          <t>GMHO:0000169</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>military facility</t>
+          <t>intervention setting</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">A facility relating to or characteristic of soldiers or armed forces </t>
+          <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1652,7 +1648,11 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_014000</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1673,7 +1673,11 @@
         </is>
       </c>
       <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1683,22 +1687,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:026044</t>
+          <t>BCIO:026040</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mobile intervention venue</t>
+          <t>military facility</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A form of transportation delivering interventions in transient locations.</t>
+          <t xml:space="preserve">A facility relating to or characteristic of soldiers or armed forces </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>transportation</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1737,120 +1741,120 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BCIO:026044</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>mobile intervention venue</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A form of transportation delivering interventions in transient locations.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>transportation</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000103</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>number of sites</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C24" s="2" t="inlineStr">
         <is>
           <t>A data item that is about the number of sites.</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
+      <c r="D24" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
+      <c r="H24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr"/>
+      <c r="J24" s="2" t="inlineStr"/>
+      <c r="K24" s="2" t="inlineStr"/>
+      <c r="L24" s="2" t="inlineStr"/>
+      <c r="M24" s="2" t="inlineStr"/>
+      <c r="N24" s="2" t="inlineStr"/>
+      <c r="O24" s="2" t="inlineStr"/>
+      <c r="P24" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr">
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr"/>
+      <c r="S24" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T23" s="2" t="inlineStr">
+      <c r="T24" s="2" t="inlineStr">
         <is>
           <t>Propose to external ontology</t>
         </is>
       </c>
-      <c r="U23" s="2" t="inlineStr">
+      <c r="U24" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V23" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>BFO:0000027</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>object aggregate</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists.</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
+      <c r="V24" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1859,22 +1863,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:026037</t>
+          <t>BFO:0000027</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>office facility</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
+          <t>b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -1915,22 +1919,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:026046</t>
+          <t>BCIO:026037</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>outdoor environment</t>
+          <t>office facility</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">A site which is an outdoor location outside of a building. </t>
+          <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1961,11 +1965,7 @@
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1975,22 +1975,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>BCIO:026046</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>outdoor environment</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
+          <t xml:space="preserve">A site which is an outdoor location outside of a building. </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>outdoor environment</t>
+          <t>site</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2021,7 +2021,11 @@
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2031,17 +2035,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:026048</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>path or pavement</t>
+          <t>park</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>An outdoor environment for the passage of persons or cyclists on land</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2087,22 +2091,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>PDRO:0000074</t>
+          <t>BCIO:026048</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pharmacy facility</t>
+          <t>path or pavement</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
+          <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>outdoor environment</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2143,22 +2147,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:026043</t>
+          <t>PDRO:0000074</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>private transportation</t>
+          <t>pharmacy facility</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>A form of transportation owned by an individual for individual or group use.</t>
+          <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>transportation</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2199,22 +2203,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:026051</t>
+          <t>BCIO:026043</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>psychiatric facility</t>
+          <t>private transportation</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
+          <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>transportation</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2253,60 +2257,56 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000104</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>psychiatric inpatient facility</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>A psychiatric facility in which patients stay at the facility overnight.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>BCIO:026051</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>psychiatric facility</t>
         </is>
       </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="inlineStr">
-        <is>
-          <t>Propose to external ontology</t>
-        </is>
-      </c>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>healthcare facility</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2315,17 +2315,17 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000105</t>
+          <t>GMHO:0000104</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>psychiatric outpatient facility</t>
+          <t>psychiatric inpatient facility</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A psychiatric facility to treat patients without them staying overnight.</t>
+          <t>A psychiatric facility in which patients stay at the facility overnight.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -2373,56 +2373,60 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BCIO:026042</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>public transportation</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000105</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>psychiatric outpatient facility</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>A psychiatric facility to treat patients without them staying overnight.</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>psychiatric facility</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>Propose to external ontology</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2431,22 +2435,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OMRSE:00000106</t>
+          <t>BCIO:026042</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>rehabilitation facility</t>
+          <t>public transportation</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>A facility to assist in physical or addiction recovery</t>
+          <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>healthcare facility</t>
+          <t>transportation</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2487,22 +2491,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ENVO:00000469</t>
+          <t>OMRSE:00000106</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>research facility</t>
+          <t>rehabilitation facility</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
+          <t>A facility to assist in physical or addiction recovery</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>facility</t>
+          <t>healthcare facility</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2543,17 +2547,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OMRSE:00000191</t>
+          <t>ENVO:00000469</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>residential facility</t>
+          <t>research facility</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
+          <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2599,17 +2603,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:026036</t>
+          <t>OMRSE:00000191</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>retail facility</t>
+          <t>residential facility</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A facility used as an outlet for shopping.</t>
+          <t>A facility that has at least one housing unit as part in which a person or persons live</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2655,22 +2659,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ENVO:00000064</t>
+          <t>BCIO:026036</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>retail facility</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+          <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>outdoor environment</t>
+          <t>facility</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2709,112 +2713,112 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ENVO:00000064</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>road</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>An open way for the passage of vehicles, persons, or animals on land</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000106</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>study recruitment setting</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>An aggregate of entities that form the environment in which participants are recruited for a study.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr"/>
+      <c r="S41" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T40" s="2" t="inlineStr"/>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>BCIO:026041</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
+      <c r="T41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2823,22 +2827,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>transportation</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">An outdoor environment set in an expanse of water. </t>
+          <t>Methods of traveling from one place to another.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>outdoor environment</t>
+          <t>site</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2876,6 +2880,62 @@
         </is>
       </c>
     </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BCIO:026047</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An outdoor environment set in an expanse of water. </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Intervention setting/Intervention setting.xlsx
+++ b/Intervention setting/Intervention setting.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,60 +1337,60 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>GAZ:00000448</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>geographical location</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>A reference to a place on the Earth, by its name or by its geographical location</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
         <is>
           <t>intervention setting</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
         <is>
           <t>intervention setting</t>
         </is>
       </c>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr">
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2771,22 +2771,22 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000106</t>
+          <t>BFO:0000006</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>study recruitment setting</t>
+          <t>spatial region</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>An aggregate of entities that form the environment in which participants are recruited for a study.</t>
+          <t xml:space="preserve">A spatial region is a continuant entity that is a continuant_part_of spaceR as defined relative to some frame R. </t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>object aggregate</t>
+          <t>immaterial entity</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
@@ -2794,7 +2794,11 @@
       <c r="G41" s="2" t="inlineStr"/>
       <c r="H41" s="2" t="inlineStr"/>
       <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr"/>
       <c r="M41" s="2" t="inlineStr"/>
@@ -2825,56 +2829,56 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BCIO:026041</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>transportation</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Methods of traveling from one place to another.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000106</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>study recruitment setting</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>An aggregate of entities that form the environment in which participants are recruited for a study.</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>object aggregate</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr"/>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2883,22 +2887,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:026047</t>
+          <t>BCIO:026041</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>water</t>
+          <t>transportation</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">An outdoor environment set in an expanse of water. </t>
+          <t>Methods of traveling from one place to another.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>outdoor environment</t>
+          <t>site</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2936,6 +2940,62 @@
         </is>
       </c>
     </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BCIO:026047</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>water</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An outdoor environment set in an expanse of water. </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>outdoor environment</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Intervention setting/Intervention setting.xlsx
+++ b/Intervention setting/Intervention setting.xlsx
@@ -1465,7 +1465,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population</t>
+          <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2769,60 +2769,60 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" t="inlineStr">
         <is>
           <t>BFO:0000006</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t xml:space="preserve">A spatial region is a continuant entity that is a continuant_part_of spaceR as defined relative to some frame R. </t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q41" s="2" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention setting/Intervention setting.xlsx
+++ b/Intervention setting/Intervention setting.xlsx
@@ -1647,7 +1647,11 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Based on http://humanbehaviourchange.org/ontology/BCIO_014000</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>http://humanbehaviourchange.org/ontology/BCIO_014000</t>
@@ -1680,7 +1684,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention setting/Intervention setting.xlsx
+++ b/Intervention setting/Intervention setting.xlsx
@@ -2859,7 +2859,11 @@
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>Based on http://humanbehaviourchange.org/ontology/BCIO_014000</t>
+        </is>
+      </c>
       <c r="L42" s="2" t="inlineStr"/>
       <c r="M42" s="2" t="inlineStr"/>
       <c r="N42" s="2" t="inlineStr"/>
@@ -2884,7 +2888,7 @@
       <c r="U42" s="2" t="inlineStr"/>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention setting/Intervention setting.xlsx
+++ b/Intervention setting/Intervention setting.xlsx
@@ -39,7 +39,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffffff"/>
+        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
   </fills>
@@ -545,1256 +545,1256 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>BCIO:026045</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>ambulance</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>A form of transporation which can transport patients for health treatment, and in some instances will also provide out-of-hospital healthcare to the patient.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>transportation</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="n"/>
+      <c r="V2" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>ENVO:00000091</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>beach</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of wate</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>outdoor environment</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q3" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>BCIO:026017</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>care home facility</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility that is run by a care home organization and is the bearer of a care home function.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
+      <c r="I4" s="2" t="n"/>
+      <c r="J4" s="2" t="n"/>
+      <c r="K4" s="2" t="n"/>
+      <c r="L4" s="2" t="n"/>
+      <c r="M4" s="2" t="n"/>
+      <c r="N4" s="2" t="n"/>
+      <c r="O4" s="2" t="n"/>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="n"/>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="n"/>
+      <c r="U4" s="2" t="n"/>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>BCIO:026029</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>community facility</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A facility used by a group of people living in the same place or having a particular characteristic in common. </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
+      <c r="E5" s="2" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
+      <c r="I5" s="2" t="n"/>
+      <c r="J5" s="2" t="n"/>
+      <c r="K5" s="2" t="n"/>
+      <c r="L5" s="2" t="n"/>
+      <c r="M5" s="2" t="n"/>
+      <c r="N5" s="2" t="n"/>
+      <c r="O5" s="2" t="n"/>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="n"/>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="n"/>
+      <c r="U5" s="2" t="n"/>
+      <c r="V5" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>BCIO:026019</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>community healthcare facility</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>A clinic providing healthcare services to people in a certain area</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n"/>
+      <c r="G6" s="2" t="n"/>
+      <c r="H6" s="2" t="n"/>
+      <c r="I6" s="2" t="n"/>
+      <c r="J6" s="2" t="n"/>
+      <c r="K6" s="2" t="n"/>
+      <c r="L6" s="2" t="n"/>
+      <c r="M6" s="2" t="n"/>
+      <c r="N6" s="2" t="n"/>
+      <c r="O6" s="2" t="n"/>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="n"/>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="n"/>
+      <c r="U6" s="2" t="n"/>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>BCIO:026020</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>community outpatient clinic facility</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility to treat patients in the community without them staying overnight.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>community healthcare facility</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
+      <c r="I7" s="2" t="n"/>
+      <c r="J7" s="2" t="n"/>
+      <c r="K7" s="2" t="n"/>
+      <c r="L7" s="2" t="n"/>
+      <c r="M7" s="2" t="n"/>
+      <c r="N7" s="2" t="n"/>
+      <c r="O7" s="2" t="n"/>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="n"/>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="n"/>
+      <c r="U7" s="2" t="n"/>
+      <c r="V7" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>BCIO:026001</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>country of intervention</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>A geographical location of a country where the intervention takes place.</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>geographical location</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr">
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
+      <c r="I8" s="2" t="n"/>
+      <c r="J8" s="2" t="n"/>
+      <c r="K8" s="2" t="n"/>
+      <c r="L8" s="2" t="n"/>
+      <c r="M8" s="2" t="n"/>
+      <c r="N8" s="2" t="n"/>
+      <c r="O8" s="2" t="n"/>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="n"/>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="n"/>
+      <c r="U8" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="V8" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>BCIO:026038</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>criminal justice facility</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>A facility where individuals are being reprimanded, detained or imprisoned.</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
+      <c r="I9" s="2" t="n"/>
+      <c r="J9" s="2" t="n"/>
+      <c r="K9" s="2" t="n"/>
+      <c r="L9" s="2" t="n"/>
+      <c r="M9" s="2" t="n"/>
+      <c r="N9" s="2" t="n"/>
+      <c r="O9" s="2" t="n"/>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="n"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="n"/>
+      <c r="U9" s="2" t="n"/>
+      <c r="V9" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>BCIO:026021</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>dentist facility</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility where dental healthcare is provided.</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr">
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="G10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
+      <c r="I10" s="2" t="n"/>
+      <c r="J10" s="2" t="n"/>
+      <c r="K10" s="2" t="n"/>
+      <c r="L10" s="2" t="n"/>
+      <c r="M10" s="2" t="n"/>
+      <c r="N10" s="2" t="n"/>
+      <c r="O10" s="2" t="n"/>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="n"/>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="n"/>
+      <c r="U10" s="2" t="n"/>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>BCIO:026016</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="2" t="inlineStr">
         <is>
           <t>doctor-led primary care facility</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="2" t="inlineStr">
         <is>
           <t>A healthcare facility led by doctors.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="G11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+      <c r="I11" s="2" t="n"/>
+      <c r="J11" s="2" t="n"/>
+      <c r="K11" s="2" t="n"/>
+      <c r="L11" s="2" t="n"/>
+      <c r="M11" s="2" t="n"/>
+      <c r="N11" s="2" t="n"/>
+      <c r="O11" s="2" t="n"/>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="n"/>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="n"/>
+      <c r="U11" s="2" t="n"/>
+      <c r="V11" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>BCIO:026022</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="2" t="inlineStr">
         <is>
           <t>educational facility</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C12" s="2" t="inlineStr">
         <is>
           <t>A facility in which formal education is provided to a student population.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
+      <c r="G12" s="2" t="n"/>
+      <c r="H12" s="2" t="n"/>
+      <c r="I12" s="2" t="n"/>
+      <c r="J12" s="2" t="n"/>
+      <c r="K12" s="2" t="n"/>
+      <c r="L12" s="2" t="n"/>
+      <c r="M12" s="2" t="n"/>
+      <c r="N12" s="2" t="n"/>
+      <c r="O12" s="2" t="n"/>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="n"/>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="n"/>
+      <c r="U12" s="2" t="n"/>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>OMRSE:00000062</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C13" s="2" t="inlineStr">
         <is>
           <t>An architectural structure that bears some function.</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="2" t="inlineStr">
         <is>
           <t>architectural structure</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
+      <c r="I13" s="2" t="n"/>
+      <c r="J13" s="2" t="n"/>
+      <c r="K13" s="2" t="n"/>
+      <c r="L13" s="2" t="n"/>
+      <c r="M13" s="2" t="n"/>
+      <c r="N13" s="2" t="n"/>
+      <c r="O13" s="2" t="n"/>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="n"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="n"/>
+      <c r="U13" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="V13" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>BCIO:026039</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>factory facility</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>A facility of a building or group of buildings where goods are manufactured or assembled chiefly by machine</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n"/>
+      <c r="G14" s="2" t="n"/>
+      <c r="H14" s="2" t="n"/>
+      <c r="I14" s="2" t="n"/>
+      <c r="J14" s="2" t="n"/>
+      <c r="K14" s="2" t="n"/>
+      <c r="L14" s="2" t="n"/>
+      <c r="M14" s="2" t="n"/>
+      <c r="N14" s="2" t="n"/>
+      <c r="O14" s="2" t="n"/>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="n"/>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="n"/>
+      <c r="U14" s="2" t="n"/>
+      <c r="V14" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>ENVO:00000111</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>forest</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>An area with a high density of trees. A small forest may be called a wood</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>outdoor environment</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="2" t="n"/>
+      <c r="V15" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>GAZ:00000448</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>geographical location</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>A reference to a place on the Earth, by its name or by its geographical location</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
+      <c r="E16" s="2" t="n"/>
+      <c r="F16" s="2" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
+      <c r="I16" s="2" t="n"/>
+      <c r="J16" s="2" t="inlineStr">
         <is>
           <t>intervention setting</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
+      <c r="K16" s="2" t="n"/>
+      <c r="L16" s="2" t="n"/>
+      <c r="M16" s="2" t="n"/>
+      <c r="N16" s="2" t="n"/>
+      <c r="O16" s="2" t="n"/>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>intervention setting</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
+      <c r="R16" s="2" t="n"/>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="n"/>
+      <c r="U16" s="2" t="n"/>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>ENVO:00000106</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>grassland</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>An area in which grasses (Graminae) are a significant component of the vegetation</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>outdoor environment</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
+      <c r="I17" s="2" t="n"/>
+      <c r="J17" s="2" t="n"/>
+      <c r="K17" s="2" t="n"/>
+      <c r="L17" s="2" t="n"/>
+      <c r="M17" s="2" t="n"/>
+      <c r="N17" s="2" t="n"/>
+      <c r="O17" s="2" t="n"/>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="n"/>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="2" t="n"/>
+      <c r="V17" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>OMRSE:00000102</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>A facility that’s administered by a health care organisation for the purpose of providing health care to a patient population.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr">
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="n"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>OMRSE:00000104</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>hospice facility</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
         <is>
           <t>A health care facility that bears a function to provide healthcare to the sick or terminally ill</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr">
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="G19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
+      <c r="I19" s="2" t="n"/>
+      <c r="J19" s="2" t="n"/>
+      <c r="K19" s="2" t="n"/>
+      <c r="L19" s="2" t="n"/>
+      <c r="M19" s="2" t="n"/>
+      <c r="N19" s="2" t="n"/>
+      <c r="O19" s="2" t="n"/>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="n"/>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="n"/>
+      <c r="U19" s="2" t="n"/>
+      <c r="V19" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>OMRSE:00000063</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>hospital facility</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>A facility that is run by a hospital organization, such as emergency departments, outpatient clinics and rehabilitation and is the bearer of a hospital function</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr">
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="n"/>
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="n"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000169</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>intervention setting</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>An aggregate of entities that form the environment in which an intervention is provided.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
+      <c r="I21" s="2" t="n"/>
+      <c r="J21" s="2" t="n"/>
+      <c r="K21" s="2" t="inlineStr">
         <is>
           <t>Based on http://humanbehaviourchange.org/ontology/BCIO_014000</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>http://humanbehaviourchange.org/ontology/BCIO_014000</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
+      <c r="M21" s="2" t="n"/>
+      <c r="N21" s="2" t="n"/>
+      <c r="O21" s="2" t="n"/>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="n"/>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="n"/>
+      <c r="U21" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
+      <c r="V21" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>BCIO:026040</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t>military facility</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A facility relating to or characteristic of soldiers or armed forces </t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr">
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="n"/>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="n"/>
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>BCIO:026044</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>mobile intervention venue</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>A form of transportation delivering interventions in transient locations.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="2" t="inlineStr">
         <is>
           <t>transportation</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
+      <c r="E23" s="2" t="n"/>
+      <c r="F23" s="2" t="n"/>
+      <c r="G23" s="2" t="n"/>
+      <c r="H23" s="2" t="n"/>
+      <c r="I23" s="2" t="n"/>
+      <c r="J23" s="2" t="n"/>
+      <c r="K23" s="2" t="n"/>
+      <c r="L23" s="2" t="n"/>
+      <c r="M23" s="2" t="n"/>
+      <c r="N23" s="2" t="n"/>
+      <c r="O23" s="2" t="n"/>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="n"/>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="n"/>
+      <c r="U23" s="2" t="n"/>
+      <c r="V23" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1821,17 +1821,17 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
+      <c r="I24" s="2" t="n"/>
+      <c r="J24" s="2" t="n"/>
+      <c r="K24" s="2" t="n"/>
+      <c r="L24" s="2" t="n"/>
+      <c r="M24" s="2" t="n"/>
+      <c r="N24" s="2" t="n"/>
+      <c r="O24" s="2" t="n"/>
       <c r="P24" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -1842,10 +1842,10 @@
           <t>Intervention setting</t>
         </is>
       </c>
-      <c r="R24" s="2" t="inlineStr"/>
+      <c r="R24" s="2" t="n"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
@@ -1865,452 +1865,452 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>BFO:0000027</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="2" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="2" t="inlineStr">
         <is>
           <t>b is an object aggregate means: b is a material entity consisting exactly of a plurality of objects as member_parts at all times at which b exists.</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="2" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
+      <c r="I25" s="2" t="n"/>
+      <c r="J25" s="2" t="n"/>
+      <c r="K25" s="2" t="n"/>
+      <c r="L25" s="2" t="n"/>
+      <c r="M25" s="2" t="n"/>
+      <c r="N25" s="2" t="n"/>
+      <c r="O25" s="2" t="n"/>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="n"/>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="n"/>
+      <c r="U25" s="2" t="n"/>
+      <c r="V25" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>BCIO:026037</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>office facility</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>A facility of a room, set of rooms, or building used as a place for commercial, professional, or bureaucratic work.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="n"/>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="n"/>
+      <c r="U26" s="2" t="n"/>
+      <c r="V26" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>BCIO:026046</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>outdoor environment</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A site which is an outdoor location outside of a building. </t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
+      <c r="E27" s="2" t="n"/>
+      <c r="F27" s="2" t="n"/>
+      <c r="G27" s="2" t="n"/>
+      <c r="H27" s="2" t="n"/>
+      <c r="I27" s="2" t="n"/>
+      <c r="J27" s="2" t="n"/>
+      <c r="K27" s="2" t="n"/>
+      <c r="L27" s="2" t="n"/>
+      <c r="M27" s="2" t="n"/>
+      <c r="N27" s="2" t="n"/>
+      <c r="O27" s="2" t="n"/>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="n"/>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="n"/>
+      <c r="U27" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V27" t="inlineStr">
+      <c r="V27" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>ENVO:00000562</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>park</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>outdoor environment</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
+      <c r="E28" s="2" t="n"/>
+      <c r="F28" s="2" t="n"/>
+      <c r="G28" s="2" t="n"/>
+      <c r="H28" s="2" t="n"/>
+      <c r="I28" s="2" t="n"/>
+      <c r="J28" s="2" t="n"/>
+      <c r="K28" s="2" t="n"/>
+      <c r="L28" s="2" t="n"/>
+      <c r="M28" s="2" t="n"/>
+      <c r="N28" s="2" t="n"/>
+      <c r="O28" s="2" t="n"/>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="n"/>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="n"/>
+      <c r="U28" s="2" t="n"/>
+      <c r="V28" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>BCIO:026048</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>path or pavement</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>An outdoor environment for the passage of persons or cyclists on land</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>outdoor environment</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr">
+      <c r="E29" s="2" t="n"/>
+      <c r="F29" s="2" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
+      <c r="I29" s="2" t="n"/>
+      <c r="J29" s="2" t="n"/>
+      <c r="K29" s="2" t="n"/>
+      <c r="L29" s="2" t="n"/>
+      <c r="M29" s="2" t="n"/>
+      <c r="N29" s="2" t="n"/>
+      <c r="O29" s="2" t="n"/>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="n"/>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="n"/>
+      <c r="U29" s="2" t="n"/>
+      <c r="V29" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>PDRO:0000074</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>pharmacy facility</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>A health care facility whose function is to store, prepare, dispense, and monitor the usage of pharmaceutical drugs among patients in a given area or encountered in a given health care provider organization</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="n"/>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="n"/>
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>BCIO:026043</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>private transportation</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>A form of transportation owned by an individual for individual or group use.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>transportation</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr">
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="n"/>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="n"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>BCIO:026051</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>psychiatric facility</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>A place designed and staffed to house and treat individuals that need assistance with mental dysfunctions</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="n"/>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="n"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2337,17 +2337,17 @@
           <t>psychiatric facility</t>
         </is>
       </c>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -2358,10 +2358,10 @@
           <t>Intervention setting</t>
         </is>
       </c>
-      <c r="R33" s="2" t="inlineStr"/>
+      <c r="R33" s="2" t="n"/>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
@@ -2369,7 +2369,7 @@
           <t>Propose to external ontology</t>
         </is>
       </c>
-      <c r="U33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="n"/>
       <c r="V33" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2397,17 +2397,17 @@
           <t>psychiatric facility</t>
         </is>
       </c>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
       <c r="P34" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -2418,10 +2418,10 @@
           <t>Intervention setting</t>
         </is>
       </c>
-      <c r="R34" s="2" t="inlineStr"/>
+      <c r="R34" s="2" t="n"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
+          <t>Obsolete</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
@@ -2429,7 +2429,7 @@
           <t>Propose to external ontology</t>
         </is>
       </c>
-      <c r="U34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="n"/>
       <c r="V34" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2437,396 +2437,396 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>BCIO:026042</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="2" t="inlineStr">
         <is>
           <t>public transportation</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>Forms of transportation that run on fixed routes and are available to the public, usually for a set fare</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>transportation</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
+      <c r="E35" s="2" t="n"/>
+      <c r="F35" s="2" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
+      <c r="I35" s="2" t="n"/>
+      <c r="J35" s="2" t="n"/>
+      <c r="K35" s="2" t="n"/>
+      <c r="L35" s="2" t="n"/>
+      <c r="M35" s="2" t="n"/>
+      <c r="N35" s="2" t="n"/>
+      <c r="O35" s="2" t="n"/>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="n"/>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="n"/>
+      <c r="U35" s="2" t="n"/>
+      <c r="V35" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>OMRSE:00000106</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>rehabilitation facility</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>A facility to assist in physical or addiction recovery</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>healthcare facility</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="n"/>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="n"/>
+      <c r="U36" s="2" t="n"/>
+      <c r="V36" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>ENVO:00000469</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="2" t="inlineStr">
         <is>
           <t>research facility</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" s="2" t="inlineStr">
         <is>
           <t>A facility, permanent or temporary, on land, in air, space or water, where scientific research or measurements can be undertaken</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="n"/>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="n"/>
+      <c r="U37" s="2" t="n"/>
+      <c r="V37" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>OMRSE:00000191</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="2" t="inlineStr">
         <is>
           <t>residential facility</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="2" t="inlineStr">
         <is>
           <t>A facility that has at least one housing unit as part in which a person or persons live</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="2" t="n"/>
+      <c r="J38" s="2" t="n"/>
+      <c r="K38" s="2" t="n"/>
+      <c r="L38" s="2" t="n"/>
+      <c r="M38" s="2" t="n"/>
+      <c r="N38" s="2" t="n"/>
+      <c r="O38" s="2" t="n"/>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="n"/>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="n"/>
+      <c r="U38" s="2" t="n"/>
+      <c r="V38" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>BCIO:026036</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>retail facility</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr">
         <is>
           <t>A facility used as an outlet for shopping.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="2" t="inlineStr">
         <is>
           <t>facility</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
+      <c r="E39" s="2" t="n"/>
+      <c r="F39" s="2" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
+      <c r="I39" s="2" t="n"/>
+      <c r="J39" s="2" t="n"/>
+      <c r="K39" s="2" t="n"/>
+      <c r="L39" s="2" t="n"/>
+      <c r="M39" s="2" t="n"/>
+      <c r="N39" s="2" t="n"/>
+      <c r="O39" s="2" t="n"/>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="n"/>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="n"/>
+      <c r="U39" s="2" t="n"/>
+      <c r="V39" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>ENVO:00000064</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>road</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>An open way for the passage of vehicles, persons, or animals on land</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>outdoor environment</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="n"/>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="n"/>
+      <c r="U40" s="2" t="n"/>
+      <c r="V40" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>BFO:0000006</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>spatial region</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A spatial region is a continuant entity that is a continuant_part_of spaceR as defined relative to some frame R. </t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>immaterial entity</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="n"/>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="n"/>
+      <c r="U41" s="2" t="n"/>
+      <c r="V41" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2853,21 +2853,21 @@
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
       <c r="K42" s="2" t="inlineStr">
         <is>
           <t>Based on http://humanbehaviourchange.org/ontology/BCIO_014000</t>
         </is>
       </c>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -2878,14 +2878,14 @@
           <t>Intervention setting</t>
         </is>
       </c>
-      <c r="R42" s="2" t="inlineStr"/>
+      <c r="R42" s="2" t="n"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="n"/>
+      <c r="U42" s="2" t="n"/>
       <c r="V42" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
@@ -2893,112 +2893,112 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>BCIO:026041</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>transportation</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Methods of traveling from one place to another.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>site</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>BCIO:026047</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>water</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An outdoor environment set in an expanse of water. </t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>outdoor environment</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Intervention setting</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>Intervention setting</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="n"/>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="n"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
